--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-larger-taxonomy.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-larger-taxonomy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0763DFB2-5C20-4C89-A128-4C6FAB19D42F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606D133-6388-4B51-8208-FFA430958230}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="732" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="732" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="8" r:id="rId1"/>
@@ -25,9 +25,8 @@
     <sheet name="Lignt_Path" sheetId="24" r:id="rId10"/>
     <sheet name="Plane" sheetId="25" r:id="rId11"/>
     <sheet name="Binary_Data" sheetId="13" r:id="rId12"/>
-    <sheet name="Unit" sheetId="19" r:id="rId13"/>
-    <sheet name="size" sheetId="20" r:id="rId14"/>
-    <sheet name="time" sheetId="21" r:id="rId15"/>
+    <sheet name="size" sheetId="20" r:id="rId13"/>
+    <sheet name="time" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="295">
   <si>
     <t/>
   </si>
@@ -325,18 +324,6 @@
   </si>
   <si>
     <t>PATO:0000117</t>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>単位</t>
@@ -346,59 +333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -469,10 +403,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000010</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000165</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1145,6 +1075,32 @@
   </si>
   <si>
     <t>:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime:s</t>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1152,7 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,13 +1137,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1221,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,13 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1567,18 +1510,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1634,39 +1577,39 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1674,28 +1617,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1711,54 +1670,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1773,32 +1732,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1807,41 +1766,41 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1853,9 +1812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1867,9 +1826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1893,16 +1852,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1928,7 +1887,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1957,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1968,35 +1927,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1">
         <v>65536</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1">
         <v>65536</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E7" s="1">
         <v>65536</v>
@@ -2010,166 +1969,65 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D64F8E-7347-4EAC-A47F-6C625EA9F7A1}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86E843-7441-4E2F-89CD-D08A0D59E1D6}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2180,18 +2038,18 @@
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
+      <c r="D5" s="5" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4458AD-9BC8-4748-9663-EAFCD2BFB43D}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -2210,77 +2068,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>117</v>
+      <c r="D5" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2296,17 +2154,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="60.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2192,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2366,584 +2224,584 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2958,18 +2816,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2986,10 +2844,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,7 +2859,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3016,10 +2874,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3036,24 +2894,24 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3068,32 +2926,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3102,20 +2960,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>80</v>
@@ -3133,15 +2991,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3149,26 +3007,26 @@
         <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3176,15 +3034,15 @@
         <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3199,30 +3057,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3230,35 +3088,35 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3273,26 +3131,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3303,16 +3161,16 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -3321,7 +3179,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>27</v>
@@ -3339,22 +3197,22 @@
         <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3378,7 +3236,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3387,16 +3245,16 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>62</v>
@@ -3405,7 +3263,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>64</v>
@@ -3423,22 +3281,22 @@
         <v>68</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3458,7 +3316,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>84</v>
@@ -3485,13 +3343,13 @@
         <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>37</v>
@@ -3500,12 +3358,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -3516,17 +3374,17 @@
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>113</v>
+      <c r="G5" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -3544,13 +3402,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
@@ -3559,32 +3417,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3600,24 +3458,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>47</v>
@@ -3626,16 +3484,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3648,7 +3506,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3660,21 +3518,21 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -3683,70 +3541,70 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3764,71 +3622,71 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-larger-taxonomy.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-larger-taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606D133-6388-4B51-8208-FFA430958230}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE050D5-F990-4B4A-A295-C2D8B60F6785}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="732" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="309">
   <si>
     <t/>
   </si>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
@@ -297,18 +293,10 @@
     <t>:Folder</t>
   </si>
   <si>
-    <t>[pixels:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Imaging Environment</t>
   </si>
   <si>
     <t>:ImagingEnvironment</t>
-  </si>
-  <si>
-    <t>[imagingEnvironment:0]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>imaging environment</t>
@@ -407,14 +395,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -442,10 +422,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -460,18 +436,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Red"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -496,14 +460,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightPath:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[lightPath:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:samplesPerPixel</t>
   </si>
   <si>
@@ -543,18 +499,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>[plane:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plane</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -835,14 +779,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1022,10 +958,6 @@
     <t>xsd:string</t>
   </si>
   <si>
-    <t>[map:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>map</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1066,10 +998,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[imagingCondition:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>imaging condition</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1101,6 +1029,134 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/imagingCondition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/imagingEnvironment/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/map/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/lightPath/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/plane/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:imagingCondition0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingEnvironment:imagingEnvironment0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>map:map1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1510,14 +1566,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1579,31 +1635,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -1619,42 +1675,98 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1785,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -1682,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1702,22 +1814,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1847,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -1745,16 +1857,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1772,13 +1884,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1786,21 +1898,21 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1814,7 +1926,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1828,7 +1940,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1855,7 +1967,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1916,18 +2029,18 @@
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
         <v>65536</v>
@@ -1935,13 +2048,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1">
         <v>65536</v>
@@ -1949,13 +2062,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
         <v>65536</v>
@@ -1971,13 +2084,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86E843-7441-4E2F-89CD-D08A0D59E1D6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1992,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2006,13 +2117,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2021,10 +2132,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2032,24 +2143,24 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2173,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4458AD-9BC8-4748-9663-EAFCD2BFB43D}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2078,16 +2189,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2095,13 +2206,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2110,10 +2221,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2121,24 +2232,24 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>47</v>
@@ -2178,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2204,7 +2315,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2212,7 +2323,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -2221,587 +2332,587 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2823,7 +2934,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2844,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2874,7 +2985,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2894,7 +3005,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2902,16 +3013,16 @@
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2929,8 +3040,8 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2938,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2957,7 +3068,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2965,18 +3076,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2994,8 +3105,8 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -3004,10 +3115,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3023,7 +3134,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3031,18 +3142,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +3171,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
@@ -3071,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3094,10 +3205,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3105,18 +3216,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3245,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -3143,9 +3254,9 @@
     <col min="8" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
@@ -3161,16 +3272,16 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -3179,7 +3290,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>27</v>
@@ -3197,19 +3308,19 @@
         <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -3245,16 +3356,16 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>62</v>
@@ -3263,7 +3374,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>64</v>
@@ -3281,19 +3392,19 @@
         <v>68</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -3316,16 +3427,16 @@
         <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>38</v>
@@ -3343,13 +3454,13 @@
         <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>37</v>
@@ -3360,10 +3471,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -3375,16 +3486,16 @@
         <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -3402,13 +3513,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
@@ -3419,30 +3530,30 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3461,11 +3572,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -3475,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>47</v>
@@ -3484,13 +3595,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3518,13 +3629,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3532,7 +3643,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -3541,10 +3652,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>38</v>
@@ -3552,19 +3663,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3572,19 +3683,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3592,19 +3703,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3635,10 +3746,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3654,7 +3765,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3662,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -3670,7 +3781,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
@@ -3678,7 +3789,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
@@ -3686,7 +3797,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-larger-taxonomy.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-larger-taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE050D5-F990-4B4A-A295-C2D8B60F6785}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC3C08-67F8-4F88-ACDA-AA970AB8DEB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="732" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="309">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -100,21 +97,12 @@
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -148,27 +136,18 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -207,10 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -225,58 +200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder:xyczt</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -287,27 +210,10 @@
     <t>folder</t>
   </si>
   <si>
-    <t>:folder</t>
-  </si>
-  <si>
-    <t>:Folder</t>
-  </si>
-  <si>
     <t>Imaging Environment</t>
   </si>
   <si>
-    <t>:ImagingEnvironment</t>
-  </si>
-  <si>
     <t>imaging environment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:imagingEnvironment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ImagingEnvironment</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -363,13 +269,7 @@
     <t>significant bits</t>
   </si>
   <si>
-    <t>:significantBits</t>
-  </si>
-  <si>
     <t>time increment</t>
-  </si>
-  <si>
-    <t>:timeIncrement</t>
   </si>
   <si>
     <t>[time:0.0s]</t>
@@ -405,37 +305,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:lightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:LightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
     <t>channel</t>
   </si>
   <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Red"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -460,15 +335,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:samplesPerPixel</t>
-  </si>
-  <si>
     <t>samples per pixel</t>
   </si>
   <si>
-    <t>:LightPath</t>
-  </si>
-  <si>
     <t>Lignt Path</t>
   </si>
   <si>
@@ -484,18 +353,6 @@
     <t>the z</t>
   </si>
   <si>
-    <t>:theC</t>
-  </si>
-  <si>
-    <t>:theT</t>
-  </si>
-  <si>
-    <t>:theZ</t>
-  </si>
-  <si>
-    <t>:Plane</t>
-  </si>
-  <si>
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
@@ -503,14 +360,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:plane</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Plane</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-larger-taxonomy/image/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -822,10 +671,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel:0:0</t>
   </si>
   <si>
@@ -946,15 +791,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>:key</t>
-  </si>
-  <si>
-    <t>:value</t>
-  </si>
-  <si>
-    <t>:Map</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
@@ -962,30 +798,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:map</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Map</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>physical size z</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:physicalSizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>interleaved</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:interleaved</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -994,18 +814,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ImagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>imaging condition</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:imagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unitTime:s</t>
   </si>
   <si>
@@ -1157,6 +969,218 @@
   </si>
   <si>
     <t>lightPath:lightPath2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:significantBits</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:timeIncrement</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:inData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:interleaved</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:samplesPerPixel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1579,194 +1603,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1791,45 +1815,45 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1854,24 +1878,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1880,39 +1904,39 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1926,7 +1950,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1940,7 +1964,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1968,32 +1992,32 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2002,45 +2026,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1">
         <v>65536</v>
@@ -2048,13 +2072,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1">
         <v>65536</v>
@@ -2062,13 +2086,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1">
         <v>65536</v>
@@ -2100,67 +2124,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2189,67 +2213,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2268,651 +2292,651 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2932,97 +2956,97 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3035,59 +3059,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA3286-9388-4929-B8AE-628EBDE17532}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD846BCF-1AD5-439B-8060-8E1BB5DC6F26}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3112,48 +3140,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3172,28 +3200,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3201,33 +3229,33 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3249,83 +3277,84 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3349,153 +3378,153 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -3513,13 +3542,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
@@ -3530,30 +3559,30 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3574,44 +3603,44 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3619,63 +3648,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3683,19 +3712,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3703,19 +3732,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3743,45 +3772,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
@@ -3789,7 +3818,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
@@ -3797,7 +3826,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>
